--- a/biology/Virologie/Liste_des_sérologies_virales/Liste_des_sérologies_virales.xlsx
+++ b/biology/Virologie/Liste_des_sérologies_virales/Liste_des_sérologies_virales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_s%C3%A9rologies_virales</t>
+          <t>Liste_des_sérologies_virales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste des sérologies virales précise pour chacune le type d'anticorps recherché et les conditions du diagnostic.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_s%C3%A9rologies_virales</t>
+          <t>Liste_des_sérologies_virales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,27 +525,134 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accident d'exposition au sang
-VIH
+          <t>Accident d'exposition au sang</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>VIH
 Virus de l'hépatite B
-Virus de l'hépatite C
-Bilan prétransfusionnel (non obligatoire)
-VIH
+Virus de l'hépatite C</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_sérologies_virales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_s%C3%A9rologies_virales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sérologies virales effectuées dans le cadre de situations particulières</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bilan prétransfusionnel (non obligatoire)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>VIH
 Virus de l'hépatite B
 Virus de l'hépatite C
 HTLV
-CMV
-Bilan prégreffe
-VIH
+CMV</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_sérologies_virales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_s%C3%A9rologies_virales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sérologies virales effectuées dans le cadre de situations particulières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bilan prégreffe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>VIH
 Virus de l'hépatite B
 Virus de l'hépatite C
 CMV
 Toxoplasmose et syphilis ne sont pas des virus mais sont recherchés dans ce contexte
 CMV
 EBV : chez le donneur dans le don de moëlle
-HAV : chez le receveur dans le don de moëlle
-Bilan chez la femme enceinte
-Rubéole : obligatoire
+HAV : chez le receveur dans le don de moëlle</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_sérologies_virales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_s%C3%A9rologies_virales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sérologies virales effectuées dans le cadre de situations particulières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bilan chez la femme enceinte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rubéole : obligatoire
 Toxoplasmose : obligatoire
 VIH : à proposer systématiquement
 Syphilis
